--- a/data/scheduling_DNN/predict/0.5/result16.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result16.xlsx
@@ -570,10 +570,10 @@
         <v>0.8674969673156738</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.411300927400589</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1064924001693726</v>
+        <v>0.2081148326396942</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.8562660217285156</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.3972792029380798</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1034616157412529</v>
+        <v>0.2106689065694809</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8568980693817139</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.4023109078407288</v>
       </c>
       <c r="W4" t="n">
-        <v>0.07200417667627335</v>
+        <v>0.2066494822502136</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9078249931335449</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.5085649490356445</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2109988480806351</v>
+        <v>0.1594085842370987</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8452999591827393</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.397294819355011</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2429588884115219</v>
+        <v>0.2007085978984833</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8480839729309082</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.4032763838768005</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001832335721701384</v>
+        <v>0.1978537887334824</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8433830738067627</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.3972541987895966</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1152611896395683</v>
+        <v>0.1990309804677963</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.898231029510498</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.8733735084533691</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2448709905147552</v>
+        <v>0.0006178963812999427</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8457989692687988</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.3973062634468079</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2172615826129913</v>
+        <v>0.2011457085609436</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.853477954864502</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.5133921504020691</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2527090609073639</v>
+        <v>0.1156583577394485</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8590350151062012</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.5257740616798401</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1454696953296661</v>
+        <v>0.1110628619790077</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>1.215978860855103</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.397300124168396</v>
       </c>
       <c r="W13" t="n">
-        <v>0.5103605985641479</v>
+        <v>0.6702348589897156</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8441088199615479</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.5007984638214111</v>
       </c>
       <c r="W14" t="n">
-        <v>0.09599921852350235</v>
+        <v>0.1178620010614395</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.842289924621582</v>
       </c>
       <c r="V15" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.4018105864524841</v>
       </c>
       <c r="W15" t="n">
-        <v>0.003529941895976663</v>
+        <v>0.1940220445394516</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8541069030761719</v>
       </c>
       <c r="V16" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.5147830843925476</v>
       </c>
       <c r="W16" t="n">
-        <v>0.001607874408364296</v>
+        <v>0.1151406541466713</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.9034659862518311</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.3972690105438232</v>
       </c>
       <c r="W17" t="n">
-        <v>0.04880910739302635</v>
+        <v>0.2562353909015656</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8429319858551025</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.4113197326660156</v>
       </c>
       <c r="W18" t="n">
-        <v>0.02113871276378632</v>
+        <v>0.1862891316413879</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8565020561218262</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.8863683342933655</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1174299791455269</v>
+        <v>0.0008919945685192943</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8526060581207275</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.8948578834533691</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1148900762200356</v>
+        <v>0.001785216736607254</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.9032678604125977</v>
       </c>
       <c r="V21" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.8671452403068542</v>
       </c>
       <c r="W21" t="n">
-        <v>0.01064887829124928</v>
+        <v>0.001304843695834279</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5156710147857666</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.4990837574005127</v>
       </c>
       <c r="W22" t="n">
-        <v>0.03337995707988739</v>
+        <v>0.0002751371066551656</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.513916015625</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.5155028700828552</v>
       </c>
       <c r="W23" t="n">
-        <v>0.01215755194425583</v>
+        <v>2.518107066862285e-06</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5105381011962891</v>
       </c>
       <c r="V24" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.8583711385726929</v>
       </c>
       <c r="W24" t="n">
-        <v>0.08841903507709503</v>
+        <v>0.1209878250956535</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5091638565063477</v>
       </c>
       <c r="V25" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.5156150460243225</v>
       </c>
       <c r="W25" t="n">
-        <v>0.1910644769668579</v>
+        <v>4.161784454481676e-05</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.568619966506958</v>
       </c>
       <c r="V26" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.8727061748504639</v>
       </c>
       <c r="W26" t="n">
-        <v>0.03554211184382439</v>
+        <v>0.09246842563152313</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5095891952514648</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.4031785726547241</v>
       </c>
       <c r="W27" t="n">
-        <v>2.498803223716095e-05</v>
+        <v>0.0113232210278511</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5100710391998291</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.4007166028022766</v>
       </c>
       <c r="W28" t="n">
-        <v>1.86193865374662e-05</v>
+        <v>0.01195839233696461</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5070860385894775</v>
       </c>
       <c r="V29" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.4989035129547119</v>
       </c>
       <c r="W29" t="n">
-        <v>0.003196078818291426</v>
+        <v>6.695372576359659e-05</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5050859451293945</v>
       </c>
       <c r="V30" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.4096735417842865</v>
       </c>
       <c r="W30" t="n">
-        <v>0.09200312197208405</v>
+        <v>0.00910352636128664</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5112519264221191</v>
       </c>
       <c r="V31" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.4963698983192444</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0739540159702301</v>
+        <v>0.000221474765567109</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.512031078338623</v>
       </c>
       <c r="V32" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.4237278699874878</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0005021936376579106</v>
+        <v>0.007797456812113523</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5131039619445801</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.8645933270454407</v>
       </c>
       <c r="W33" t="n">
-        <v>0.02064849250018597</v>
+        <v>0.1235447749495506</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5036020278930664</v>
       </c>
       <c r="V34" t="n">
-        <v>0.514474630355835</v>
+        <v>0.5163458585739136</v>
       </c>
       <c r="W34" t="n">
-        <v>0.0001182134874397889</v>
+        <v>0.0001624052238184959</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5099740028381348</v>
       </c>
       <c r="V35" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.4007473587989807</v>
       </c>
       <c r="W35" t="n">
-        <v>0.02534287050366402</v>
+        <v>0.01193046011030674</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5108850002288818</v>
       </c>
       <c r="V36" t="n">
-        <v>0.381181538105011</v>
+        <v>0.8672828078269958</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01682298816740513</v>
+        <v>0.127019390463829</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5586268901824951</v>
       </c>
       <c r="V37" t="n">
-        <v>0.466268926858902</v>
+        <v>0.8925089240074158</v>
       </c>
       <c r="W37" t="n">
-        <v>0.008529993705451488</v>
+        <v>0.1114772111177444</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5077240467071533</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.4031002819538116</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0008932037162594497</v>
+        <v>0.0109461322426796</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5048930644989014</v>
       </c>
       <c r="V39" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.4127614200115204</v>
       </c>
       <c r="W39" t="n">
-        <v>0.007033306173980236</v>
+        <v>0.008488239720463753</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5101690292358398</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.5148357748985291</v>
       </c>
       <c r="W40" t="n">
-        <v>0.01136021502315998</v>
+        <v>2.177851456508506e-05</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5025570392608643</v>
       </c>
       <c r="V41" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.8734111189842224</v>
       </c>
       <c r="W41" t="n">
-        <v>0.02568103931844234</v>
+        <v>0.1375327557325363</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.384148120880127</v>
       </c>
       <c r="V42" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.8860844969749451</v>
       </c>
       <c r="W42" t="n">
-        <v>0.1863480061292648</v>
+        <v>0.251940131187439</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4059560298919678</v>
       </c>
       <c r="V43" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.8657764196395874</v>
       </c>
       <c r="W43" t="n">
-        <v>0.142119362950325</v>
+        <v>0.2114347964525223</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3791239261627197</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.4006728827953339</v>
       </c>
       <c r="W44" t="n">
-        <v>0.0005993411759845912</v>
+        <v>0.000464357523014769</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3802318572998047</v>
       </c>
       <c r="V45" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.8877688646316528</v>
       </c>
       <c r="W45" t="n">
-        <v>0.07629074901342392</v>
+        <v>0.2575938105583191</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.383242130279541</v>
       </c>
       <c r="V46" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.5155900716781616</v>
       </c>
       <c r="W46" t="n">
-        <v>5.80821779294638e-06</v>
+        <v>0.01751597784459591</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3846879005432129</v>
       </c>
       <c r="V47" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.5132404565811157</v>
       </c>
       <c r="W47" t="n">
-        <v>0.3171992003917694</v>
+        <v>0.0165257602930069</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3805088996887207</v>
       </c>
       <c r="V48" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.8632168769836426</v>
       </c>
       <c r="W48" t="n">
-        <v>0.09121792763471603</v>
+        <v>0.2330069839954376</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.4383540153503418</v>
       </c>
       <c r="V49" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.8733484745025635</v>
       </c>
       <c r="W49" t="n">
-        <v>0.2541044056415558</v>
+        <v>0.1892201751470566</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3844389915466309</v>
       </c>
       <c r="V50" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.3989962041378021</v>
       </c>
       <c r="W50" t="n">
-        <v>0.01449353620409966</v>
+        <v>0.000211912440136075</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.384894847869873</v>
       </c>
       <c r="V51" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.5130302906036377</v>
       </c>
       <c r="W51" t="n">
-        <v>0.06577029824256897</v>
+        <v>0.0164186917245388</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3854258060455322</v>
       </c>
       <c r="V52" t="n">
-        <v>0.531548023223877</v>
+        <v>0.3972746431827545</v>
       </c>
       <c r="W52" t="n">
-        <v>0.02135170251131058</v>
+        <v>0.000140394942718558</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3767361640930176</v>
       </c>
       <c r="V53" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.4958698153495789</v>
       </c>
       <c r="W53" t="n">
-        <v>0.0007013492286205292</v>
+        <v>0.01419282704591751</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3849499225616455</v>
       </c>
       <c r="V54" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.8733064532279968</v>
       </c>
       <c r="W54" t="n">
-        <v>0.001168240909464657</v>
+        <v>0.2384921014308929</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3830370903015137</v>
       </c>
       <c r="V55" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.4912920892238617</v>
       </c>
       <c r="W55" t="n">
-        <v>0.04717601463198662</v>
+        <v>0.01171914488077164</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3842628002166748</v>
       </c>
       <c r="V56" t="n">
-        <v>0.350784033536911</v>
+        <v>0.5123579502105713</v>
       </c>
       <c r="W56" t="n">
-        <v>0.001120827859267592</v>
+        <v>0.01640836708247662</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3873310089111328</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.8841925263404846</v>
       </c>
       <c r="W57" t="n">
-        <v>0.02250957861542702</v>
+        <v>0.2468713670969009</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3795309066772461</v>
       </c>
       <c r="V58" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.4229434430599213</v>
       </c>
       <c r="W58" t="n">
-        <v>0.1843521893024445</v>
+        <v>0.001884648343548179</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3844850063323975</v>
       </c>
       <c r="V59" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.4971211552619934</v>
       </c>
       <c r="W59" t="n">
-        <v>0.001135492464527488</v>
+        <v>0.01268690172582865</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3758318424224854</v>
       </c>
       <c r="V60" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.8846383094787598</v>
       </c>
       <c r="W60" t="n">
-        <v>0.1661811470985413</v>
+        <v>0.2588840126991272</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3857119083404541</v>
       </c>
       <c r="V61" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.4900511205196381</v>
       </c>
       <c r="W61" t="n">
-        <v>0.01377518754452467</v>
+        <v>0.0108866710215807</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8905909061431885</v>
       </c>
       <c r="V62" t="n">
-        <v>0.514564037322998</v>
+        <v>0.4930435419082642</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1413962095975876</v>
+        <v>0.1580439060926437</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8728399276733398</v>
       </c>
       <c r="V63" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.4980478584766388</v>
       </c>
       <c r="W63" t="n">
-        <v>0.05272615700960159</v>
+        <v>0.1404690891504288</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8617570400238037</v>
       </c>
       <c r="V64" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.8684983253479004</v>
       </c>
       <c r="W64" t="n">
-        <v>0.04197820648550987</v>
+        <v>4.544492912827991e-05</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8418221473693848</v>
       </c>
       <c r="V65" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.5147943496704102</v>
       </c>
       <c r="W65" t="n">
-        <v>0.001459341729059815</v>
+        <v>0.1069471836090088</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8886041641235352</v>
       </c>
       <c r="V66" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.4954860210418701</v>
       </c>
       <c r="W66" t="n">
-        <v>0.2681869268417358</v>
+        <v>0.1545418798923492</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8514788150787354</v>
       </c>
       <c r="V67" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.4905182421207428</v>
       </c>
       <c r="W67" t="n">
-        <v>0.008298249915242195</v>
+        <v>0.130292534828186</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8402788639068604</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.4220802187919617</v>
       </c>
       <c r="W68" t="n">
-        <v>0.02486724220216274</v>
+        <v>0.1748901009559631</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8573660850524902</v>
       </c>
       <c r="V69" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.4119653105735779</v>
       </c>
       <c r="W69" t="n">
-        <v>0.2566271424293518</v>
+        <v>0.1983818560838699</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8827309608459473</v>
       </c>
       <c r="V70" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.5399708151817322</v>
       </c>
       <c r="W70" t="n">
-        <v>0.05192891508340836</v>
+        <v>0.1174845173954964</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8608570098876953</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.515669584274292</v>
       </c>
       <c r="W71" t="n">
-        <v>0.209085687994957</v>
+        <v>0.1191543564200401</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8551228046417236</v>
       </c>
       <c r="V72" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.5076850652694702</v>
       </c>
       <c r="W72" t="n">
-        <v>0.007620988879352808</v>
+        <v>0.1207129806280136</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8558399677276611</v>
       </c>
       <c r="V73" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.5428403615951538</v>
       </c>
       <c r="W73" t="n">
-        <v>0.2044781744480133</v>
+        <v>0.09796875715255737</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8744540214538574</v>
       </c>
       <c r="V74" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.8769897222518921</v>
       </c>
       <c r="W74" t="n">
-        <v>0.00450036907568574</v>
+        <v>6.429778750316473e-06</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8589508533477783</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.897874116897583</v>
       </c>
       <c r="W75" t="n">
-        <v>0.2072933167219162</v>
+        <v>0.001515020499937236</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8385260105133057</v>
       </c>
       <c r="V76" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.4176878035068512</v>
       </c>
       <c r="W76" t="n">
-        <v>0.01080580614507198</v>
+        <v>0.1771048009395599</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8394889831542969</v>
       </c>
       <c r="V77" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.8734241127967834</v>
       </c>
       <c r="W77" t="n">
-        <v>0.2157112061977386</v>
+        <v>0.001151593052782118</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.9030349254608154</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.8922057151794434</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1602111011743546</v>
+        <v>0.0001172717966255732</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8696699142456055</v>
       </c>
       <c r="V79" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.3974532186985016</v>
       </c>
       <c r="W79" t="n">
-        <v>0.04647251963615417</v>
+        <v>0.2229886054992676</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8499338626861572</v>
       </c>
       <c r="V80" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.8809199333190918</v>
       </c>
       <c r="W80" t="n">
-        <v>0.08294612169265747</v>
+        <v>0.0009601365891285241</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8476300239562988</v>
       </c>
       <c r="V81" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.4023714661598206</v>
       </c>
       <c r="W81" t="n">
-        <v>0.1186409965157509</v>
+        <v>0.198255181312561</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5661230087280273</v>
       </c>
       <c r="V82" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.4987342953681946</v>
       </c>
       <c r="W82" t="n">
-        <v>0.001772556570358574</v>
+        <v>0.004541238769888878</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.534649133682251</v>
       </c>
       <c r="V83" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.86772620677948</v>
       </c>
       <c r="W83" t="n">
-        <v>0.06202876195311546</v>
+        <v>0.1109403371810913</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5144460201263428</v>
       </c>
       <c r="V84" t="n">
-        <v>0.946087121963501</v>
+        <v>0.5060302019119263</v>
       </c>
       <c r="W84" t="n">
-        <v>0.1863140463829041</v>
+        <v>7.082599768182263e-05</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.506882905960083</v>
       </c>
       <c r="V85" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.4236503839492798</v>
       </c>
       <c r="W85" t="n">
-        <v>0.0180724635720253</v>
+        <v>0.00692765275016427</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5128889083862305</v>
       </c>
       <c r="V86" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.5156689286231995</v>
       </c>
       <c r="W86" t="n">
-        <v>1.59011051437119e-06</v>
+        <v>7.728512173343915e-06</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5611529350280762</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.3972890973091125</v>
       </c>
       <c r="W87" t="n">
-        <v>0.002089848043397069</v>
+        <v>0.02685135789215565</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5147559642791748</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.8624895215034485</v>
       </c>
       <c r="W88" t="n">
-        <v>0.0007209792966023088</v>
+        <v>0.1209186241030693</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5145590305328369</v>
       </c>
       <c r="V89" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.5103682279586792</v>
       </c>
       <c r="W89" t="n">
-        <v>0.02628546953201294</v>
+        <v>1.756282654241659e-05</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5127341747283936</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.8687936067581177</v>
       </c>
       <c r="W90" t="n">
-        <v>0.01085491478443146</v>
+        <v>0.126778319478035</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5190918445587158</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.3973017334938049</v>
       </c>
       <c r="W91" t="n">
-        <v>0.000116670984425582</v>
+        <v>0.01483283098787069</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5130519866943359</v>
       </c>
       <c r="V92" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.8673630952835083</v>
       </c>
       <c r="W92" t="n">
-        <v>0.002354569267481565</v>
+        <v>0.1255363672971725</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5114860534667969</v>
       </c>
       <c r="V93" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.491887629032135</v>
       </c>
       <c r="W93" t="n">
-        <v>5.148701893631369e-05</v>
+        <v>0.0003840982390101999</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5136439800262451</v>
       </c>
       <c r="V94" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.8700094819068909</v>
       </c>
       <c r="W94" t="n">
-        <v>0.01209349371492863</v>
+        <v>0.1269963681697845</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5163388252258301</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.8656662106513977</v>
       </c>
       <c r="W95" t="n">
-        <v>0.01276347227394581</v>
+        <v>0.1220296248793602</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5185210704803467</v>
       </c>
       <c r="V96" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.3972795903682709</v>
       </c>
       <c r="W96" t="n">
-        <v>1.760381564963609e-05</v>
+        <v>0.01469949632883072</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5084989070892334</v>
       </c>
       <c r="V97" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.3972985446453094</v>
       </c>
       <c r="W97" t="n">
-        <v>0.07519365847110748</v>
+        <v>0.01236552093178034</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5737850666046143</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.8794865608215332</v>
       </c>
       <c r="W98" t="n">
-        <v>0.001562675810419023</v>
+        <v>0.09345340728759766</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5176172256469727</v>
       </c>
       <c r="V99" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.8603193163871765</v>
       </c>
       <c r="W99" t="n">
-        <v>0.000175551263964735</v>
+        <v>0.1174447238445282</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5177130699157715</v>
       </c>
       <c r="V100" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.4007306694984436</v>
       </c>
       <c r="W100" t="n">
-        <v>0.0002937724930234253</v>
+        <v>0.01368488185107708</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5123000144958496</v>
       </c>
       <c r="V101" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.4028991460800171</v>
       </c>
       <c r="W101" t="n">
-        <v>0.01853121630847454</v>
+        <v>0.01196855027228594</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.3948140144348145</v>
       </c>
       <c r="V102" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.4224447011947632</v>
       </c>
       <c r="W102" t="n">
-        <v>0.02148055471479893</v>
+        <v>0.0007634548237547278</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3938770294189453</v>
       </c>
       <c r="V103" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.4938202202320099</v>
       </c>
       <c r="W103" t="n">
-        <v>0.06226960197091103</v>
+        <v>0.009988641366362572</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4296739101409912</v>
       </c>
       <c r="V104" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.8852898478507996</v>
       </c>
       <c r="W104" t="n">
-        <v>0.0003508000518195331</v>
+        <v>0.2075858861207962</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.3969409465789795</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.4022510945796967</v>
       </c>
       <c r="W105" t="n">
-        <v>0.01369873341172934</v>
+        <v>2.819767178152688e-05</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3835301399230957</v>
       </c>
       <c r="V106" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.5157070159912109</v>
       </c>
       <c r="W106" t="n">
-        <v>0.03141744434833527</v>
+        <v>0.01747072674334049</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3859210014343262</v>
       </c>
       <c r="V107" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.490531861782074</v>
       </c>
       <c r="W107" t="n">
-        <v>0.04115072637796402</v>
+        <v>0.01094343233853579</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3881969451904297</v>
       </c>
       <c r="V108" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.4030069708824158</v>
       </c>
       <c r="W108" t="n">
-        <v>0.0222522709518671</v>
+        <v>0.0002193368563894182</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3860578536987305</v>
       </c>
       <c r="V109" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.4030133485794067</v>
       </c>
       <c r="W109" t="n">
-        <v>0.0356173925101757</v>
+        <v>0.0002874888014048338</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.4418110847473145</v>
       </c>
       <c r="V110" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.8684491515159607</v>
       </c>
       <c r="W110" t="n">
-        <v>0.001459523919038475</v>
+        <v>0.1820200383663177</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3884329795837402</v>
       </c>
       <c r="V111" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.8947272896766663</v>
       </c>
       <c r="W111" t="n">
-        <v>0.0002333047305000946</v>
+        <v>0.2563339173793793</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.3950531482696533</v>
       </c>
       <c r="V112" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.8770238757133484</v>
       </c>
       <c r="W112" t="n">
-        <v>0.001996464794501662</v>
+        <v>0.2322957813739777</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3894131183624268</v>
       </c>
       <c r="V113" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.4111748039722443</v>
       </c>
       <c r="W113" t="n">
-        <v>0.003739765379577875</v>
+        <v>0.0004735709517262876</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3892350196838379</v>
       </c>
       <c r="V114" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.8742800354957581</v>
       </c>
       <c r="W114" t="n">
-        <v>0.03522517159581184</v>
+        <v>0.2352686673402786</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3900489807128906</v>
       </c>
       <c r="V115" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.8615521192550659</v>
       </c>
       <c r="W115" t="n">
-        <v>0.0003744245041161776</v>
+        <v>0.2223152071237564</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3895061016082764</v>
       </c>
       <c r="V116" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.8702940344810486</v>
       </c>
       <c r="W116" t="n">
-        <v>0.0120444418862462</v>
+        <v>0.2311570346355438</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3837640285491943</v>
       </c>
       <c r="V117" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.866912841796875</v>
       </c>
       <c r="W117" t="n">
-        <v>0.00880130473524332</v>
+        <v>0.2334327697753906</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4187958240509033</v>
       </c>
       <c r="V118" t="n">
-        <v>0.514431357383728</v>
+        <v>0.8668100237846375</v>
       </c>
       <c r="W118" t="n">
-        <v>0.00914615485817194</v>
+        <v>0.2007167190313339</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3829190731048584</v>
       </c>
       <c r="V119" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.8691617250442505</v>
       </c>
       <c r="W119" t="n">
-        <v>0.02096153609454632</v>
+        <v>0.2364319115877151</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3954489231109619</v>
       </c>
       <c r="V120" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.4914906322956085</v>
       </c>
       <c r="W120" t="n">
-        <v>0.3010999262332916</v>
+        <v>0.009224009700119495</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3956220149993896</v>
       </c>
       <c r="V121" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.3974526226520538</v>
       </c>
       <c r="W121" t="n">
-        <v>0.1700356155633926</v>
+        <v>3.351124405526207e-06</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.9516279697418213</v>
       </c>
       <c r="V122" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.8708983063697815</v>
       </c>
       <c r="W122" t="n">
-        <v>0.3318027555942535</v>
+        <v>0.006517278496176004</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9290480613708496</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.5135113596916199</v>
       </c>
       <c r="W123" t="n">
-        <v>0.06593843549489975</v>
+        <v>0.1726707518100739</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8818929195404053</v>
       </c>
       <c r="V124" t="n">
-        <v>0.65655517578125</v>
+        <v>0.4033442437648773</v>
       </c>
       <c r="W124" t="n">
-        <v>0.05077710002660751</v>
+        <v>0.2290088385343552</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.866441011428833</v>
       </c>
       <c r="V125" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.4951255023479462</v>
       </c>
       <c r="W125" t="n">
-        <v>0.04574039950966835</v>
+        <v>0.1378752142190933</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.9396529197692871</v>
       </c>
       <c r="V126" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.4229163527488708</v>
       </c>
       <c r="W126" t="n">
-        <v>0.0167814064770937</v>
+        <v>0.2670166790485382</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8601741790771484</v>
       </c>
       <c r="V127" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.4967103898525238</v>
       </c>
       <c r="W127" t="n">
-        <v>0.03153414651751518</v>
+        <v>0.1321059316396713</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8705580234527588</v>
       </c>
       <c r="V128" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.8666092157363892</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1081951186060905</v>
+        <v>1.559308293508366e-05</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8527100086212158</v>
       </c>
       <c r="V129" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.3972925543785095</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1147221699357033</v>
+        <v>0.2074050605297089</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.9323620796203613</v>
       </c>
       <c r="V130" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.3989637196063995</v>
       </c>
       <c r="W130" t="n">
-        <v>0.08441846817731857</v>
+        <v>0.2845138311386108</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8620100021362305</v>
       </c>
       <c r="V131" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.8694087266921997</v>
       </c>
       <c r="W131" t="n">
-        <v>0.04798229783773422</v>
+        <v>5.47411254956387e-05</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8681838512420654</v>
       </c>
       <c r="V132" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.4033951163291931</v>
       </c>
       <c r="W132" t="n">
-        <v>0.005742487031966448</v>
+        <v>0.2160285711288452</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8797750473022461</v>
       </c>
       <c r="V133" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.4030963182449341</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1145137995481491</v>
+        <v>0.2272226065397263</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.9095540046691895</v>
       </c>
       <c r="V134" t="n">
-        <v>0.672245979309082</v>
+        <v>0.8704380989074707</v>
       </c>
       <c r="W134" t="n">
-        <v>0.0563150979578495</v>
+        <v>0.001530054025352001</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8665180206298828</v>
       </c>
       <c r="V135" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.8973603844642639</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1508164703845978</v>
+        <v>0.0009512514225207269</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8528680801391602</v>
       </c>
       <c r="V136" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.8663269281387329</v>
       </c>
       <c r="W136" t="n">
-        <v>0.1145375221967697</v>
+        <v>0.0001811405963962898</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8640589714050293</v>
       </c>
       <c r="V137" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.5407586097717285</v>
       </c>
       <c r="W137" t="n">
-        <v>0.2122463136911392</v>
+        <v>0.1045231223106384</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.9172878265380859</v>
       </c>
       <c r="V138" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.5156491994857788</v>
       </c>
       <c r="W138" t="n">
-        <v>0.0009352994966320693</v>
+        <v>0.1613135933876038</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8497669696807861</v>
       </c>
       <c r="V139" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.5156997442245483</v>
       </c>
       <c r="W139" t="n">
-        <v>0.02795056812465191</v>
+        <v>0.1116009131073952</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8870780467987061</v>
       </c>
       <c r="V140" t="n">
-        <v>0.782903790473938</v>
+        <v>0.4222221374511719</v>
       </c>
       <c r="W140" t="n">
-        <v>0.010852275416255</v>
+        <v>0.2160910218954086</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8524549007415771</v>
       </c>
       <c r="V141" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.3972644209861755</v>
       </c>
       <c r="W141" t="n">
-        <v>0.2014695852994919</v>
+        <v>0.207198366522789</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5773119926452637</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.5003184080123901</v>
       </c>
       <c r="W142" t="n">
-        <v>0.03016901016235352</v>
+        <v>0.005928012076765299</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5194869041442871</v>
       </c>
       <c r="V143" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.5050466060638428</v>
       </c>
       <c r="W143" t="n">
-        <v>0.02846292033791542</v>
+        <v>0.0002085222076857463</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5179729461669922</v>
       </c>
       <c r="V144" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.491448700428009</v>
       </c>
       <c r="W144" t="n">
-        <v>0.01703636161983013</v>
+        <v>0.0007035356247797608</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5146110057830811</v>
       </c>
       <c r="V145" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.4033245444297791</v>
       </c>
       <c r="W145" t="n">
-        <v>0.004089088179171085</v>
+        <v>0.01238467637449503</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5176818370819092</v>
       </c>
       <c r="V146" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.4953197538852692</v>
       </c>
       <c r="W146" t="n">
-        <v>0.03225646167993546</v>
+        <v>0.0005000627716071904</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5413899421691895</v>
       </c>
       <c r="V147" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.8715004920959473</v>
       </c>
       <c r="W147" t="n">
-        <v>0.1639263033866882</v>
+        <v>0.1089729741215706</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5270290374755859</v>
       </c>
       <c r="V148" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.5156069993972778</v>
       </c>
       <c r="W148" t="n">
-        <v>0.0007373671396635473</v>
+        <v>0.0001304629549849778</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5142581462860107</v>
       </c>
       <c r="V149" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.8582234978675842</v>
       </c>
       <c r="W149" t="n">
-        <v>0.01930700056254864</v>
+        <v>0.1183121651411057</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5190191268920898</v>
       </c>
       <c r="V150" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.8658151030540466</v>
       </c>
       <c r="W150" t="n">
-        <v>0.0002928863978013396</v>
+        <v>0.1202674508094788</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5171880722045898</v>
       </c>
       <c r="V151" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.8782835602760315</v>
       </c>
       <c r="W151" t="n">
-        <v>0.08578040450811386</v>
+        <v>0.1303899586200714</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5158429145812988</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.8737823963165283</v>
       </c>
       <c r="W152" t="n">
-        <v>0.01266897656023502</v>
+        <v>0.1281206756830215</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5384039878845215</v>
       </c>
       <c r="V153" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.5095897912979126</v>
       </c>
       <c r="W153" t="n">
-        <v>0.02103851363062859</v>
+        <v>0.0008302579517476261</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5166900157928467</v>
       </c>
       <c r="V154" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.5108664035797119</v>
       </c>
       <c r="W154" t="n">
-        <v>0.002539840526878834</v>
+        <v>3.391446080058813e-05</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5195591449737549</v>
       </c>
       <c r="V155" t="n">
-        <v>0.944080114364624</v>
+        <v>0.8985973000526428</v>
       </c>
       <c r="W155" t="n">
-        <v>0.1802180558443069</v>
+        <v>0.143669918179512</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5104279518127441</v>
       </c>
       <c r="V156" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.8595274686813354</v>
       </c>
       <c r="W156" t="n">
-        <v>0.01733027026057243</v>
+        <v>0.1218704730272293</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5180521011352539</v>
       </c>
       <c r="V157" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.402936726808548</v>
       </c>
       <c r="W157" t="n">
-        <v>0.02171352878212929</v>
+        <v>0.01325154956430197</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5773909091949463</v>
       </c>
       <c r="V158" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.8568713068962097</v>
       </c>
       <c r="W158" t="n">
-        <v>0.05273984372615814</v>
+        <v>0.07810929417610168</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5174031257629395</v>
       </c>
       <c r="V159" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.4238111972808838</v>
       </c>
       <c r="W159" t="n">
-        <v>0.01856059953570366</v>
+        <v>0.008759449236094952</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.518618106842041</v>
       </c>
       <c r="V160" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.5087456703186035</v>
       </c>
       <c r="W160" t="n">
-        <v>0.0002302494103787467</v>
+        <v>9.746500290930271e-05</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.518690824508667</v>
       </c>
       <c r="V161" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.5157065391540527</v>
       </c>
       <c r="W161" t="n">
-        <v>0.003295798785984516</v>
+        <v>8.905959475669079e-06</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3845269680023193</v>
       </c>
       <c r="V162" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.4116155207157135</v>
       </c>
       <c r="W162" t="n">
-        <v>0.0143192196264863</v>
+        <v>0.0007337896968238056</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3889369964599609</v>
       </c>
       <c r="V163" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.4980783760547638</v>
       </c>
       <c r="W163" t="n">
-        <v>0.003814401803538203</v>
+        <v>0.01191184110939503</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.4397609233856201</v>
       </c>
       <c r="V164" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.5099431872367859</v>
       </c>
       <c r="W164" t="n">
-        <v>0.04541169479489326</v>
+        <v>0.00492554996162653</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3923981189727783</v>
       </c>
       <c r="V165" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.5062555074691772</v>
       </c>
       <c r="W165" t="n">
-        <v>0.06811323761940002</v>
+        <v>0.01296350453048944</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3857560157775879</v>
       </c>
       <c r="V166" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.4988327026367188</v>
       </c>
       <c r="W166" t="n">
-        <v>0.1851730644702911</v>
+        <v>0.01278633717447519</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.390949010848999</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.4118412137031555</v>
       </c>
       <c r="W167" t="n">
-        <v>0.02879316359758377</v>
+        <v>0.000436484144302085</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.4511659145355225</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.5092500448226929</v>
       </c>
       <c r="W168" t="n">
-        <v>0.00226357881911099</v>
+        <v>0.003373766085132957</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3905680179595947</v>
       </c>
       <c r="V169" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.4136394858360291</v>
       </c>
       <c r="W169" t="n">
-        <v>0.001582746393978596</v>
+        <v>0.0005322926444932818</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.4520089626312256</v>
       </c>
       <c r="V170" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.4032557010650635</v>
       </c>
       <c r="W170" t="n">
-        <v>0.005872247740626335</v>
+        <v>0.002376880496740341</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3906660079956055</v>
       </c>
       <c r="V171" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.4946320056915283</v>
       </c>
       <c r="W171" t="n">
-        <v>0.02270721271634102</v>
+        <v>0.01080892886966467</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3994870185852051</v>
       </c>
       <c r="V172" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.4992729723453522</v>
       </c>
       <c r="W172" t="n">
-        <v>0.04356029257178307</v>
+        <v>0.009957236237823963</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3946781158447266</v>
       </c>
       <c r="V173" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.512422502040863</v>
       </c>
       <c r="W173" t="n">
-        <v>0.006951302289962769</v>
+        <v>0.01386374048888683</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4131858348846436</v>
       </c>
       <c r="V174" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.4023763537406921</v>
       </c>
       <c r="W174" t="n">
-        <v>0.06701960414648056</v>
+        <v>0.000116844879812561</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3919909000396729</v>
       </c>
       <c r="V175" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.5157179832458496</v>
       </c>
       <c r="W175" t="n">
-        <v>0.3131412267684937</v>
+        <v>0.01530839130282402</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3951170444488525</v>
       </c>
       <c r="V176" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.8643838167190552</v>
       </c>
       <c r="W176" t="n">
-        <v>0.01409077178686857</v>
+        <v>0.2202112972736359</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4014451503753662</v>
       </c>
       <c r="V177" t="n">
-        <v>0.54131019115448</v>
+        <v>0.8668738007545471</v>
       </c>
       <c r="W177" t="n">
-        <v>0.01956222951412201</v>
+        <v>0.2166238278150558</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3903319835662842</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.4918774366378784</v>
       </c>
       <c r="W178" t="n">
-        <v>0.01566828787326813</v>
+        <v>0.01031147874891758</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3951280117034912</v>
       </c>
       <c r="V179" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.5086197853088379</v>
       </c>
       <c r="W179" t="n">
-        <v>7.168990123318508e-05</v>
+        <v>0.01288038305938244</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3934211730957031</v>
       </c>
       <c r="V180" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.8779528141021729</v>
       </c>
       <c r="W180" t="n">
-        <v>0.0001051230356097221</v>
+        <v>0.2347709089517593</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4087798595428467</v>
       </c>
       <c r="V181" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.3973091840744019</v>
       </c>
       <c r="W181" t="n">
-        <v>2.695574585231952e-05</v>
+        <v>0.0001315763947786763</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.9310531616210938</v>
       </c>
       <c r="V182" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.3992198407649994</v>
       </c>
       <c r="W182" t="n">
-        <v>0.08201872557401657</v>
+        <v>0.2828466594219208</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9001381397247314</v>
       </c>
       <c r="V183" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.4988800883293152</v>
       </c>
       <c r="W183" t="n">
-        <v>0.06659968942403793</v>
+        <v>0.1610080301761627</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8736839294433594</v>
       </c>
       <c r="V184" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.8925847411155701</v>
       </c>
       <c r="W184" t="n">
-        <v>0.04723812267184258</v>
+        <v>0.0003572406712919474</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8622119426727295</v>
       </c>
       <c r="V185" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.8792136907577515</v>
       </c>
       <c r="W185" t="n">
-        <v>0.2615549266338348</v>
+        <v>0.0002890594478230923</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.9206070899963379</v>
       </c>
       <c r="V186" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.4124045968055725</v>
       </c>
       <c r="W186" t="n">
-        <v>0.1293235272169113</v>
+        <v>0.2582697868347168</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8726701736450195</v>
       </c>
       <c r="V187" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.8688647747039795</v>
       </c>
       <c r="W187" t="n">
-        <v>0.00445781322196126</v>
+        <v>1.448106104362523e-05</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8600640296936035</v>
       </c>
       <c r="V188" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.8780794739723206</v>
       </c>
       <c r="W188" t="n">
-        <v>0.1196965053677559</v>
+        <v>0.0003245562256779522</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8587009906768799</v>
       </c>
       <c r="V189" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.3974229991436005</v>
       </c>
       <c r="W189" t="n">
-        <v>0.04153500869870186</v>
+        <v>0.212777391076088</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.9100961685180664</v>
       </c>
       <c r="V190" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.8832225799560547</v>
       </c>
       <c r="W190" t="n">
-        <v>0.3128261566162109</v>
+        <v>0.0007221897831186652</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8680498600006104</v>
       </c>
       <c r="V191" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.8715526461601257</v>
       </c>
       <c r="W191" t="n">
-        <v>0.006103664636611938</v>
+        <v>1.226951098942664e-05</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8641750812530518</v>
       </c>
       <c r="V192" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.3972777724266052</v>
       </c>
       <c r="W192" t="n">
-        <v>0.03017155639827251</v>
+        <v>0.2179930955171585</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8645908832550049</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.4938271641731262</v>
       </c>
       <c r="W193" t="n">
-        <v>0.1497455537319183</v>
+        <v>0.1374657303094864</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.918956995010376</v>
       </c>
       <c r="V194" t="n">
-        <v>0.350454181432724</v>
+        <v>0.8994030356407166</v>
       </c>
       <c r="W194" t="n">
-        <v>0.3231954276561737</v>
+        <v>0.0003823573351837695</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8616139888763428</v>
       </c>
       <c r="V195" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.8742848038673401</v>
       </c>
       <c r="W195" t="n">
-        <v>0.0906129851937294</v>
+        <v>0.0001605495490366593</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8604018688201904</v>
       </c>
       <c r="V196" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.3972739577293396</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1044672057032585</v>
+        <v>0.2144874632358551</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8492429256439209</v>
       </c>
       <c r="V197" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.4989756345748901</v>
       </c>
       <c r="W197" t="n">
-        <v>0.2191839963197708</v>
+        <v>0.1226871758699417</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.918503999710083</v>
       </c>
       <c r="V198" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.5152444243431091</v>
       </c>
       <c r="W198" t="n">
-        <v>0.0695326030254364</v>
+        <v>0.1626182794570923</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8714280128479004</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.4047402143478394</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1358639448881149</v>
+        <v>0.2177975028753281</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8650541305541992</v>
       </c>
       <c r="V200" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.5002307891845703</v>
       </c>
       <c r="W200" t="n">
-        <v>0.2627846002578735</v>
+        <v>0.1330960690975189</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8827910423278809</v>
       </c>
       <c r="V201" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.4236669540405273</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1440520286560059</v>
+        <v>0.2107949256896973</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5699949264526367</v>
       </c>
       <c r="V202" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.4109601676464081</v>
       </c>
       <c r="W202" t="n">
-        <v>0.05855545401573181</v>
+        <v>0.0252920538187027</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5083200931549072</v>
       </c>
       <c r="V203" t="n">
-        <v>0.541418194770813</v>
+        <v>0.4101560115814209</v>
       </c>
       <c r="W203" t="n">
-        <v>0.001095484360121191</v>
+        <v>0.009636186994612217</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.523759126663208</v>
       </c>
       <c r="V204" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.5116854906082153</v>
       </c>
       <c r="W204" t="n">
-        <v>0.1796980947256088</v>
+        <v>0.0001457726903026924</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5118520259857178</v>
       </c>
       <c r="V205" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.4024164080619812</v>
       </c>
       <c r="W205" t="n">
-        <v>3.611651209212141e-06</v>
+        <v>0.01197615452110767</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5180840492248535</v>
       </c>
       <c r="V206" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.4986002445220947</v>
       </c>
       <c r="W206" t="n">
-        <v>0.0001963388931471854</v>
+        <v>0.0003796186356339604</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5173430442810059</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.8717034459114075</v>
       </c>
       <c r="W207" t="n">
-        <v>0.0003877351118717343</v>
+        <v>0.1255712956190109</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5155980587005615</v>
       </c>
       <c r="V208" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.8671731352806091</v>
       </c>
       <c r="W208" t="n">
-        <v>0.02087274566292763</v>
+        <v>0.1236050352454185</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.51692795753479</v>
       </c>
       <c r="V209" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.3989599645137787</v>
       </c>
       <c r="W209" t="n">
-        <v>1.034283741319086e-05</v>
+        <v>0.01391644775867462</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5169570446014404</v>
       </c>
       <c r="V210" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.4340874254703522</v>
       </c>
       <c r="W210" t="n">
-        <v>0.0002286567469127476</v>
+        <v>0.006867373827844858</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5207931995391846</v>
       </c>
       <c r="V211" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.508816123008728</v>
       </c>
       <c r="W211" t="n">
-        <v>0.01849043369293213</v>
+        <v>0.0001434503647033125</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5211551189422607</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.403281033039093</v>
       </c>
       <c r="W212" t="n">
-        <v>0.0004094915057066828</v>
+        <v>0.01389429997652769</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5717520713806152</v>
       </c>
       <c r="V213" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.5154431462287903</v>
       </c>
       <c r="W213" t="n">
-        <v>0.02825724892318249</v>
+        <v>0.003170695155858994</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5180099010467529</v>
       </c>
       <c r="V214" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.4944879412651062</v>
       </c>
       <c r="W214" t="n">
-        <v>0.02029726840555668</v>
+        <v>0.0005532826180569828</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5209879875183105</v>
       </c>
       <c r="V215" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.4908877909183502</v>
       </c>
       <c r="W215" t="n">
-        <v>0.02896962873637676</v>
+        <v>0.000906021858099848</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5132570266723633</v>
       </c>
       <c r="V216" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.3992306888103485</v>
       </c>
       <c r="W216" t="n">
-        <v>0.0002146710321540013</v>
+        <v>0.01300200540572405</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5181879997253418</v>
       </c>
       <c r="V217" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.4247550368309021</v>
       </c>
       <c r="W217" t="n">
-        <v>0.07004112750291824</v>
+        <v>0.008729718625545502</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5422689914703369</v>
       </c>
       <c r="V218" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.4110361039638519</v>
       </c>
       <c r="W218" t="n">
-        <v>0.02430317550897598</v>
+        <v>0.01722207106649876</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5216789245605469</v>
       </c>
       <c r="V219" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.4023349285125732</v>
       </c>
       <c r="W219" t="n">
-        <v>0.01962149702012539</v>
+        <v>0.01424298901110888</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5229740142822266</v>
       </c>
       <c r="V220" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.8752084970474243</v>
       </c>
       <c r="W220" t="n">
-        <v>0.0003387513570487499</v>
+        <v>0.1240691319108009</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5183291435241699</v>
       </c>
       <c r="V221" t="n">
-        <v>0.504324197769165</v>
+        <v>0.8985735177993774</v>
       </c>
       <c r="W221" t="n">
-        <v>0.0001961384987225756</v>
+        <v>0.1445857882499695</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3868288993835449</v>
       </c>
       <c r="V222" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.8772794604301453</v>
       </c>
       <c r="W222" t="n">
-        <v>0.06537681818008423</v>
+        <v>0.2405417561531067</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3892269134521484</v>
       </c>
       <c r="V223" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.397291362285614</v>
       </c>
       <c r="W223" t="n">
-        <v>0.0155449640005827</v>
+        <v>6.503533222712576e-05</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.4478988647460938</v>
       </c>
       <c r="V224" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.3977012634277344</v>
       </c>
       <c r="W224" t="n">
-        <v>0.05503064766526222</v>
+        <v>0.00251979916356504</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3881099224090576</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.5136849284172058</v>
       </c>
       <c r="W225" t="n">
-        <v>0.00610224436968565</v>
+        <v>0.01576908305287361</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3939759731292725</v>
       </c>
       <c r="V226" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.5074654221534729</v>
       </c>
       <c r="W226" t="n">
-        <v>0.001865402096882463</v>
+        <v>0.01287985499948263</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3871378898620605</v>
       </c>
       <c r="V227" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.8678860068321228</v>
       </c>
       <c r="W227" t="n">
-        <v>4.29753441721914e-08</v>
+        <v>0.2311187535524368</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3866500854492188</v>
       </c>
       <c r="V228" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.873446524143219</v>
       </c>
       <c r="W228" t="n">
-        <v>0.001321689574979246</v>
+        <v>0.2369707673788071</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4029650688171387</v>
       </c>
       <c r="V229" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.4230859279632568</v>
       </c>
       <c r="W229" t="n">
-        <v>0.01561674568802118</v>
+        <v>0.0004048489790875465</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3855400085449219</v>
       </c>
       <c r="V230" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.8727238774299622</v>
       </c>
       <c r="W230" t="n">
-        <v>0.0168407279998064</v>
+        <v>0.2373481243848801</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3938031196594238</v>
       </c>
       <c r="V231" t="n">
-        <v>0.350296825170517</v>
+        <v>0.4031801819801331</v>
       </c>
       <c r="W231" t="n">
-        <v>0.001892797648906708</v>
+        <v>8.792930020717904e-05</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3945381641387939</v>
       </c>
       <c r="V232" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.8613288998603821</v>
       </c>
       <c r="W232" t="n">
-        <v>0.01439179107546806</v>
+        <v>0.217893585562706</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3987751007080078</v>
       </c>
       <c r="V233" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.8919326663017273</v>
       </c>
       <c r="W233" t="n">
-        <v>0.06556477397680283</v>
+        <v>0.2432043850421906</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3940908908843994</v>
       </c>
       <c r="V234" t="n">
-        <v>0.534324586391449</v>
+        <v>0.4978220462799072</v>
       </c>
       <c r="W234" t="n">
-        <v>0.01966548897325993</v>
+        <v>0.01076015271246433</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3873729705810547</v>
       </c>
       <c r="V235" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.4225113391876221</v>
       </c>
       <c r="W235" t="n">
-        <v>0.0002577664563432336</v>
+        <v>0.001234704977832735</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4232368469238281</v>
       </c>
       <c r="V236" t="n">
-        <v>0.654965877532959</v>
+        <v>0.3993683457374573</v>
       </c>
       <c r="W236" t="n">
-        <v>0.0536983422935009</v>
+        <v>0.0005697053275071084</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3913278579711914</v>
       </c>
       <c r="V237" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.8727349042892456</v>
       </c>
       <c r="W237" t="n">
-        <v>0.01267630979418755</v>
+        <v>0.2317527383565903</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3910040855407715</v>
       </c>
       <c r="V238" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.8991052508354187</v>
       </c>
       <c r="W238" t="n">
-        <v>0.0197688527405262</v>
+        <v>0.2581667900085449</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3917660713195801</v>
       </c>
       <c r="V239" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.4238685369491577</v>
       </c>
       <c r="W239" t="n">
-        <v>0.0002558427513577044</v>
+        <v>0.001030568266287446</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3873550891876221</v>
       </c>
       <c r="V240" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.5034576654434204</v>
       </c>
       <c r="W240" t="n">
-        <v>0.0002646822540555149</v>
+        <v>0.01347980834543705</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.386228084564209</v>
       </c>
       <c r="V241" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.5132826566696167</v>
       </c>
       <c r="W241" t="n">
-        <v>0.0003016428963746876</v>
+        <v>0.01614286378026009</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9340600967407227</v>
       </c>
       <c r="V242" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.8717597723007202</v>
       </c>
       <c r="W242" t="n">
-        <v>0.3059872388839722</v>
+        <v>0.00388133036904037</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.9019050598144531</v>
       </c>
       <c r="V243" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.8718962073326111</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1364940702915192</v>
+        <v>0.0009005312458612025</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8834450244903564</v>
       </c>
       <c r="V244" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.8713296055793762</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1233682259917259</v>
+        <v>0.0001467833790229633</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8760960102081299</v>
       </c>
       <c r="V245" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.397726833820343</v>
       </c>
       <c r="W245" t="n">
-        <v>0.1809911727905273</v>
+        <v>0.2288370728492737</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9240548610687256</v>
       </c>
       <c r="V246" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.878018319606781</v>
       </c>
       <c r="W246" t="n">
-        <v>0.294853001832962</v>
+        <v>0.002119363052770495</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8751180171966553</v>
       </c>
       <c r="V247" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.4110519886016846</v>
       </c>
       <c r="W247" t="n">
-        <v>0.004190241452306509</v>
+        <v>0.2153572738170624</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8558840751647949</v>
       </c>
       <c r="V248" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.3990050554275513</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1643096804618835</v>
+        <v>0.2087384313344955</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8596539497375488</v>
       </c>
       <c r="V249" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.5141795873641968</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1057411730289459</v>
+        <v>0.1193525344133377</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.9199659824371338</v>
       </c>
       <c r="V250" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.872409462928772</v>
       </c>
       <c r="W250" t="n">
-        <v>0.1433805674314499</v>
+        <v>0.00226162257604301</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8935949802398682</v>
       </c>
       <c r="V251" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.3974412977695465</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1826502978801727</v>
+        <v>0.2461684793233871</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8824079036712646</v>
       </c>
       <c r="V252" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.3972861766815186</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1424824446439743</v>
+        <v>0.2353430837392807</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8694038391113281</v>
       </c>
       <c r="V253" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.869533360004425</v>
       </c>
       <c r="W253" t="n">
-        <v>0.216897115111351</v>
+        <v>1.677566174862477e-08</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9344220161437988</v>
       </c>
       <c r="V254" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.3972972333431244</v>
       </c>
       <c r="W254" t="n">
-        <v>0.1196286231279373</v>
+        <v>0.2885029911994934</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>1.058418035507202</v>
       </c>
       <c r="V255" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.8735414743423462</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1735197901725769</v>
+        <v>0.03417934104800224</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.867372989654541</v>
       </c>
       <c r="V256" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.4022687077522278</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1244989708065987</v>
+        <v>0.2163219898939133</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8716740608215332</v>
       </c>
       <c r="V257" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.515649676322937</v>
       </c>
       <c r="W257" t="n">
-        <v>0.007702314760535955</v>
+        <v>0.1267533600330353</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.9206409454345703</v>
       </c>
       <c r="V258" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.4023171663284302</v>
       </c>
       <c r="W258" t="n">
-        <v>0.0781635046005249</v>
+        <v>0.2686595320701599</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8685529232025146</v>
       </c>
       <c r="V259" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.8798742890357971</v>
       </c>
       <c r="W259" t="n">
-        <v>0.2680849730968475</v>
+        <v>0.0001281733275391161</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8556249141693115</v>
       </c>
       <c r="V260" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.8819779753684998</v>
       </c>
       <c r="W260" t="n">
-        <v>0.254880279302597</v>
+        <v>0.0006944838096387684</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8735740184783936</v>
       </c>
       <c r="V261" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.3992212116718292</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1130265891551971</v>
+        <v>0.2250105887651443</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5683920383453369</v>
       </c>
       <c r="V262" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.4029663801193237</v>
       </c>
       <c r="W262" t="n">
-        <v>0.04627526178956032</v>
+        <v>0.02736564911901951</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5272350311279297</v>
       </c>
       <c r="V263" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.4033973217010498</v>
       </c>
       <c r="W263" t="n">
-        <v>0.06596794724464417</v>
+        <v>0.01533577870577574</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5149078369140625</v>
       </c>
       <c r="V264" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.4949173331260681</v>
       </c>
       <c r="W264" t="n">
-        <v>0.0007011062116362154</v>
+        <v>0.0003996202431153506</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5264160633087158</v>
       </c>
       <c r="V265" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.5154225826263428</v>
       </c>
       <c r="W265" t="n">
-        <v>0.01351418253034353</v>
+        <v>0.0001208566172863357</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5210471153259277</v>
       </c>
       <c r="V266" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.5074345469474792</v>
       </c>
       <c r="W266" t="n">
-        <v>5.28179261891637e-05</v>
+        <v>0.0001853020221460611</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.549943208694458</v>
       </c>
       <c r="V267" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.496454656124115</v>
       </c>
       <c r="W267" t="n">
-        <v>0.002318084239959717</v>
+        <v>0.002861025277525187</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5225179195404053</v>
       </c>
       <c r="V268" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.8739213347434998</v>
       </c>
       <c r="W268" t="n">
-        <v>0.02237300015985966</v>
+        <v>0.1234843581914902</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5225930213928223</v>
       </c>
       <c r="V269" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.8796076774597168</v>
       </c>
       <c r="W269" t="n">
-        <v>0.07706277817487717</v>
+        <v>0.1274594664573669</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5107958316802979</v>
       </c>
       <c r="V270" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.5088808536529541</v>
       </c>
       <c r="W270" t="n">
-        <v>0.01677817851305008</v>
+        <v>3.66714084520936e-06</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5195698738098145</v>
       </c>
       <c r="V271" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.5118659734725952</v>
       </c>
       <c r="W271" t="n">
-        <v>0.06981246173381805</v>
+        <v>5.935008084634319e-05</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5319468975067139</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.5149385929107666</v>
       </c>
       <c r="W272" t="n">
-        <v>0.006974424701184034</v>
+        <v>0.0002892824122682214</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5238940715789795</v>
       </c>
       <c r="V273" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.8718457818031311</v>
       </c>
       <c r="W273" t="n">
-        <v>0.0002628285146784037</v>
+        <v>0.1210703924298286</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5282120704650879</v>
       </c>
       <c r="V274" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.3989478945732117</v>
       </c>
       <c r="W274" t="n">
-        <v>0.06489101052284241</v>
+        <v>0.01670922711491585</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5198049545288086</v>
       </c>
       <c r="V275" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.510261595249176</v>
       </c>
       <c r="W275" t="n">
-        <v>0.00325893284752965</v>
+        <v>9.107570804189891e-05</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.520374059677124</v>
       </c>
       <c r="V276" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.3972719311714172</v>
       </c>
       <c r="W276" t="n">
-        <v>0.02876187860965729</v>
+        <v>0.01515413448214531</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5278160572052002</v>
       </c>
       <c r="V277" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.4231367111206055</v>
       </c>
       <c r="W277" t="n">
-        <v>0.01548657845705748</v>
+        <v>0.01095776539295912</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5759041309356689</v>
       </c>
       <c r="V278" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.8626155257225037</v>
       </c>
       <c r="W278" t="n">
-        <v>0.003846429055556655</v>
+        <v>0.08220342546701431</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5332629680633545</v>
       </c>
       <c r="V279" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.898655116558075</v>
       </c>
       <c r="W279" t="n">
-        <v>0.06250661611557007</v>
+        <v>0.1335114240646362</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5204870700836182</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.5155205726623535</v>
       </c>
       <c r="W280" t="n">
-        <v>0.0002878810628317297</v>
+        <v>2.466609657858498e-05</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5129299163818359</v>
       </c>
       <c r="V281" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.8906102776527405</v>
       </c>
       <c r="W281" t="n">
-        <v>0.01891922205686569</v>
+        <v>0.1426424533128738</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.405580997467041</v>
       </c>
       <c r="V282" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.4236123561859131</v>
       </c>
       <c r="W282" t="n">
-        <v>0.06206368282437325</v>
+        <v>0.0003251298912800848</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4022738933563232</v>
       </c>
       <c r="V283" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.5107398629188538</v>
       </c>
       <c r="W283" t="n">
-        <v>0.01039451733231544</v>
+        <v>0.01176486629992723</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.40081787109375</v>
       </c>
       <c r="V284" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.5228768587112427</v>
       </c>
       <c r="W284" t="n">
-        <v>0.3032008409500122</v>
+        <v>0.01489839609712362</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4482460021972656</v>
       </c>
       <c r="V285" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.8713240623474121</v>
       </c>
       <c r="W285" t="n">
-        <v>0.001985411625355482</v>
+        <v>0.1789950430393219</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3977510929107666</v>
       </c>
       <c r="V286" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.8695357441902161</v>
       </c>
       <c r="W286" t="n">
-        <v>0.06505339592695236</v>
+        <v>0.222580760717392</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4005110263824463</v>
       </c>
       <c r="V287" t="n">
-        <v>0.672019362449646</v>
+        <v>0.4101419448852539</v>
       </c>
       <c r="W287" t="n">
-        <v>0.07371677458286285</v>
+        <v>9.275459160562605e-05</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3895740509033203</v>
       </c>
       <c r="V288" t="n">
-        <v>0.654166579246521</v>
+        <v>0.4017990529537201</v>
       </c>
       <c r="W288" t="n">
-        <v>0.07000920921564102</v>
+        <v>0.0001494506723247468</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4091858863830566</v>
       </c>
       <c r="V289" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.5091716647148132</v>
       </c>
       <c r="W289" t="n">
-        <v>0.06041565537452698</v>
+        <v>0.009997155517339706</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.407181978225708</v>
       </c>
       <c r="V290" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.5405896902084351</v>
       </c>
       <c r="W290" t="n">
-        <v>0.1621627360582352</v>
+        <v>0.01779761724174023</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3979640007019043</v>
       </c>
       <c r="V291" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.4995171427726746</v>
       </c>
       <c r="W291" t="n">
-        <v>0.002227043267339468</v>
+        <v>0.01031304057687521</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.3985989093780518</v>
       </c>
       <c r="V292" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.4920612573623657</v>
       </c>
       <c r="W292" t="n">
-        <v>0.08520493656396866</v>
+        <v>0.008735210634768009</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3950169086456299</v>
       </c>
       <c r="V293" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.8723313808441162</v>
       </c>
       <c r="W293" t="n">
-        <v>0.006852888967841864</v>
+        <v>0.2278290987014771</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3943140506744385</v>
       </c>
       <c r="V294" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.5073661804199219</v>
       </c>
       <c r="W294" t="n">
-        <v>0.01207224559038877</v>
+        <v>0.01278078369796276</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3939938545227051</v>
       </c>
       <c r="V295" t="n">
-        <v>0.375304102897644</v>
+        <v>0.3974486291408539</v>
       </c>
       <c r="W295" t="n">
-        <v>0.0003493068215902895</v>
+        <v>1.193546722788597e-05</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4487309455871582</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.5073723793029785</v>
       </c>
       <c r="W296" t="n">
-        <v>0.007811273448169231</v>
+        <v>0.003438817802816629</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.39068603515625</v>
       </c>
       <c r="V297" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.4033154249191284</v>
       </c>
       <c r="W297" t="n">
-        <v>0.1531898379325867</v>
+        <v>0.0001595014909980819</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4058229923248291</v>
       </c>
       <c r="V298" t="n">
-        <v>0.656647801399231</v>
+        <v>0.8665156960487366</v>
       </c>
       <c r="W298" t="n">
-        <v>0.06291308254003525</v>
+        <v>0.212237760424614</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3924829959869385</v>
       </c>
       <c r="V299" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.5157395005226135</v>
       </c>
       <c r="W299" t="n">
-        <v>0.09280018508434296</v>
+        <v>0.01519216597080231</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3964340686798096</v>
       </c>
       <c r="V300" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.8675417304039001</v>
       </c>
       <c r="W300" t="n">
-        <v>0.1798982620239258</v>
+        <v>0.2219424247741699</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3985171318054199</v>
       </c>
       <c r="V301" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.8612963557243347</v>
       </c>
       <c r="W301" t="n">
-        <v>0.002311009913682938</v>
+        <v>0.2141646146774292</v>
       </c>
     </row>
     <row r="302" spans="1:23">
